--- a/csec/database/Agricultural Science data.xlsx
+++ b/csec/database/Agricultural Science data.xlsx
@@ -11,12 +11,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>CSEC Agri Science SA June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1uP63UjZOx9VWdep4oJtmmdoUS5quI7nK</t>
+  </si>
+  <si>
+    <t>CSEC Agri Science SA June 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1VMpFg2Z2z74--D293NbWoYlvj5y1Ngbr</t>
+  </si>
+  <si>
+    <t>CSEC Agri Science DA June 2019.pdf</t>
+  </si>
+  <si>
+    <t>1fQjuT42GyEsO5tqCzVn0k51BwEu7IdKx</t>
+  </si>
+  <si>
+    <t>CSEC Agri Science DA June 2018.pdf</t>
+  </si>
+  <si>
+    <t>1lNc6TlZ0KPzxUjpNHVDNwBt0FHCz4EUp</t>
+  </si>
+  <si>
+    <t>CSEC Agri Science DA June 2022 P3.pdf</t>
+  </si>
+  <si>
+    <t>1T3Urzst-qQIL4PaZ4ggMaWUazq6diOOu</t>
+  </si>
+  <si>
+    <t>19qo0_PkhKBsORcdk3VORFtv2nzU9IuzK</t>
+  </si>
+  <si>
+    <t>CSEC Agri Science DA June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1trWEyJfzM1qRvLmW1oe8_OYVyYB7WLsh</t>
+  </si>
+  <si>
+    <t>CSEC Agri Science DA June 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1K27cttW8ZDCGQRAG--d9DmUR-95XifPx</t>
+  </si>
+  <si>
+    <t>CSEC Agri Science DA June 2017 P2.pdf</t>
+  </si>
+  <si>
+    <t>1WaX6fmbzxN3-1rWTjZuoRkDbzZJ1KiVe</t>
   </si>
   <si>
     <t>CSEC Agri Science SA June 2009 P2.pdf</t>
@@ -407,74 +458,146 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
